--- a/Day34-栈和队列/栈和队列.xlsx
+++ b/Day34-栈和队列/栈和队列.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="栈" sheetId="2" r:id="rId2"/>
+    <sheet name="队列" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +210,68 @@
   </si>
   <si>
     <t>先移动top,再插入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear &gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;  Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、队列不是数组，不一定从数组下标 0 开始存放值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、队列是从 对头位置、到队尾位置 之间的一个结构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、队列的长度随着 队头、队尾 间距的大小而改变</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于弹簧的结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于枪的弹夹的结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +299,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +318,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,11 +354,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="40"/>
+      </left>
+      <right style="medium">
+        <color indexed="40"/>
+      </right>
+      <top style="medium">
+        <color indexed="40"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="40"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -292,6 +408,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,6 +863,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -757,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -832,6 +954,9 @@
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="14" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22">
         <v>8</v>
@@ -923,6 +1048,167 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:E24"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="14" thickBot="1">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14" thickBot="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="2:5" ht="14" thickBot="1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14" thickBot="1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="2:5" ht="14" thickBot="1">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="2:5" ht="14" thickBot="1">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="2:5" ht="14" thickBot="1">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="2:5" ht="14" thickBot="1">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:5" ht="14" thickBot="1">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="2:5" ht="14" thickBot="1">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="14" thickBot="1">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="2:5" ht="14" thickBot="1">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="2:5" ht="14" thickBot="1">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="2:5" ht="14" thickBot="1">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="2:5" ht="14" thickBot="1">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" ht="14" thickBot="1">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="14" thickBot="1">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="14" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" ht="14" thickBot="1">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
